--- a/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU87"/>
+  <dimension ref="A1:AU88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77981efc-5085-4ceb-8daf-433ff69a8790</t>
+          <t>d83b6dd9-45c7-4ce5-b299-6086a4e5ba79</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-23T09:34:00.000Z</t>
+          <t>2024-07-25T05:44:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-77981efc50854ceb8daf433ff69a8790</t>
+          <t>https://www.notion.so/1-d83b6dd945c74ce5b2996086a4e5ba79</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>25f7c61d-806e-44e4-b06a-d1cdd69e0209</t>
+          <t>77981efc-5085-4ceb-8daf-433ff69a8790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-21T10:08:00.000Z</t>
+          <t>2024-07-23T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-25f7c61d806e44e4b06ad1cdd69e0209</t>
+          <t>https://www.notion.so/2-77981efc50854ceb8daf433ff69a8790</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6e31e972-3b9d-4943-9bca-9623487e0a7d</t>
+          <t>25f7c61d-806e-44e4-b06a-d1cdd69e0209</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-20T09:48:00.000Z</t>
+          <t>2024-07-21T10:08:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-6e31e9723b9d49439bca9623487e0a7d</t>
+          <t>https://www.notion.so/3-25f7c61d806e44e4b06ad1cdd69e0209</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>94fa7304-3963-4bcd-8356-5abbfce2a6f3</t>
+          <t>6e31e972-3b9d-4943-9bca-9623487e0a7d</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-19T10:42:00.000Z</t>
+          <t>2024-07-20T09:48:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-94fa730439634bcd83565abbfce2a6f3</t>
+          <t>https://www.notion.so/4-6e31e9723b9d49439bca9623487e0a7d</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
+          <t>94fa7304-3963-4bcd-8356-5abbfce2a6f3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-18T10:59:00.000Z</t>
+          <t>2024-07-19T10:42:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-8a14bd8044644e149c3bb8b92e5e34f1</t>
+          <t>https://www.notion.so/5-94fa730439634bcd83565abbfce2a6f3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
+          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-18T10:59:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-ab7f95ce43b342b183b50578395cef2d</t>
+          <t>https://www.notion.so/6-8a14bd8044644e149c3bb8b92e5e34f1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
+          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-3b58dea8d569439c9d2837bc5cb00b87</t>
+          <t>https://www.notion.so/7-ab7f95ce43b342b183b50578395cef2d</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
+          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-15T04:38:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-0fecdb7c3c374eea97289e9e308f8f91</t>
+          <t>https://www.notion.so/8-3b58dea8d569439c9d2837bc5cb00b87</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
+          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-14T14:34:00.000Z</t>
+          <t>2024-07-15T04:38:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-e64e264f45f048db83497eb369265ce0</t>
+          <t>https://www.notion.so/9-0fecdb7c3c374eea97289e9e308f8f91</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
+          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-13T09:28:00.000Z</t>
+          <t>2024-07-14T14:34:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-6c9a4fbe94ba4813a4442725e44cd033</t>
+          <t>https://www.notion.so/10-e64e264f45f048db83497eb369265ce0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
+          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-12T09:53:00.000Z</t>
+          <t>2024-07-13T09:28:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-5cd2df68475f4500b2d7678411a240a9</t>
+          <t>https://www.notion.so/11-6c9a4fbe94ba4813a4442725e44cd033</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
+          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-11T06:12:00.000Z</t>
+          <t>2024-07-12T09:53:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-9afdbbb63c714c0c9ddee729964648b8</t>
+          <t>https://www.notion.so/12-5cd2df68475f4500b2d7678411a240a9</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
+          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-09T08:22:00.000Z</t>
+          <t>2024-07-11T06:12:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-fb2d17940cdc46f0a9a107162fa1770c</t>
+          <t>https://www.notion.so/13-9afdbbb63c714c0c9ddee729964648b8</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
+          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-08T04:11:00.000Z</t>
+          <t>2024-07-09T08:22:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-107624f776954a1bb0bad8f486d99ffc</t>
+          <t>https://www.notion.so/14-fb2d17940cdc46f0a9a107162fa1770c</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
+          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-06T08:51:00.000Z</t>
+          <t>2024-07-08T04:11:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-77beaf39139f468c8b7a9dfbffdc34ce</t>
+          <t>https://www.notion.so/15-107624f776954a1bb0bad8f486d99ffc</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
+          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-04T03:57:00.000Z</t>
+          <t>2024-07-06T08:51:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/16-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
+          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-03T09:52:00.000Z</t>
+          <t>2024-07-04T03:57:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/17-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
+          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-02T02:58:00.000Z</t>
+          <t>2024-07-03T09:52:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/18-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
+          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-07-01T07:45:00.000Z</t>
+          <t>2024-07-02T02:58:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/19-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
+          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-30T09:08:00.000Z</t>
+          <t>2024-07-01T07:45:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/20-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
+          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-29T09:34:00.000Z</t>
+          <t>2024-06-30T09:08:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/21-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
+          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-27T05:20:00.000Z</t>
+          <t>2024-06-29T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/22-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
+          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-27T05:20:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/23-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
+          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/24-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
+          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/25-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
+          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/26-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
+          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/27-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
+          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/28-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
+          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/29-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
+          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/30-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
+          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/31-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
+          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/32-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
+          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/33-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
+          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/34-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,17 +7444,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
+          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/35-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
+          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/36-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
+          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/37-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
+          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/38-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
+          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/39-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
+          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/40-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
+          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/41-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
+          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/42-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
+          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/43-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
+          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/44-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
+          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/45-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
+          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/46-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
+          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/47-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
+          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/48-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
+          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/49-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
+          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/50-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
+          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/51-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
+          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/52-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
+          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/53-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
+          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/54-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
+          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/55-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
+          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/56-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
+          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/57-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
+          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/58-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
+          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/59-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
+          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/60-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
+          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/61-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
+          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/62-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
+          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/63-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
+          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/64-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
+          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/65-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
+          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/66-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
+          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/67-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
+          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/68-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
+          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/69-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
+          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/70-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
+          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/71-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
+          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/72-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
+          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/73-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
+          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/74-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
+          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/75-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
+          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/76-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
+          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/77-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/78-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,17 +16200,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/79-c4a99c5cf44e4039a0458ad12b4f6046</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/80-214991f646494c4db5957aa6576c69ad</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/81-d9f9ae69896d4f76b57208645f10e3fa</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/82-73f7f862f11441db92210fde8f9c580d</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/83-631d954b83a847d48683983aad0b002d</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,17 +17195,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:36:00.000Z</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/84-3e313c4511094d1996f73d46baff66af</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/85-15dc290bde0b4ca9ba770946c5f13582</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/86-85a1185c5d12479f808c48ad22a864c1</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17781,6 +17781,205 @@
       <c r="AU87" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '86', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '86', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2024-07-25T15:03:00.000Z</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/87-b4c82aa77e7f4289b0ba1b14e683031d</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC88" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="AD88" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI88" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO88" t="n">
+        <v>-2050000</v>
+      </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU88" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '87', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '87', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>

--- a/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
@@ -538,13 +538,13 @@
     <t>2024-06-25T08:24:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:17:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:18:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:19:00.000Z</t>
+    <t>2024-08-03T03:28:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T03:29:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T03:30:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/1-4d8f8038c5d54995b028510ab2536236</t>
@@ -3243,7 +3243,7 @@
         <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -9899,7 +9899,7 @@
         <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>

--- a/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
@@ -538,13 +538,13 @@
     <t>2024-06-25T08:24:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:28:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:29:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:30:00.000Z</t>
+    <t>2024-08-03T03:54:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T03:55:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T03:56:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/1-4d8f8038c5d54995b028510ab2536236</t>
@@ -3755,7 +3755,7 @@
         <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4907,7 +4907,7 @@
         <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>171</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -9899,7 +9899,7 @@
         <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -10795,7 +10795,7 @@
         <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>171</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -11051,7 +11051,7 @@
         <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -11179,7 +11179,7 @@
         <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -12075,7 +12075,7 @@
         <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -12203,7 +12203,7 @@
         <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -12331,7 +12331,7 @@
         <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>

--- a/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
@@ -538,13 +538,13 @@
     <t>2024-06-25T08:24:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-03T03:54:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:55:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-03T03:56:00.000Z</t>
+    <t>2024-08-03T20:14:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T20:15:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-03T20:16:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/1-4d8f8038c5d54995b028510ab2536236</t>
@@ -3627,7 +3627,7 @@
         <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -3883,7 +3883,7 @@
         <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>156</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4139,7 +4139,7 @@
         <v>157</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4267,7 +4267,7 @@
         <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -4651,7 +4651,7 @@
         <v>161</v>
       </c>
       <c r="D23" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -4779,7 +4779,7 @@
         <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -4907,7 +4907,7 @@
         <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -5291,7 +5291,7 @@
         <v>166</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -5419,7 +5419,7 @@
         <v>167</v>
       </c>
       <c r="D29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -5547,7 +5547,7 @@
         <v>168</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -8875,7 +8875,7 @@
         <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
@@ -9131,7 +9131,7 @@
         <v>171</v>
       </c>
       <c r="D58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
@@ -9259,7 +9259,7 @@
         <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
@@ -9387,7 +9387,7 @@
         <v>171</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
@@ -9515,7 +9515,7 @@
         <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>171</v>
       </c>
       <c r="D63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
@@ -9899,7 +9899,7 @@
         <v>171</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
@@ -10155,7 +10155,7 @@
         <v>171</v>
       </c>
       <c r="D66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
@@ -10283,7 +10283,7 @@
         <v>171</v>
       </c>
       <c r="D67" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
@@ -10411,7 +10411,7 @@
         <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
@@ -10539,7 +10539,7 @@
         <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>171</v>
       </c>
       <c r="D70" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
@@ -10795,7 +10795,7 @@
         <v>171</v>
       </c>
       <c r="D71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>171</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
@@ -11051,7 +11051,7 @@
         <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
@@ -11179,7 +11179,7 @@
         <v>171</v>
       </c>
       <c r="D74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>171</v>
       </c>
       <c r="D75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
@@ -11435,7 +11435,7 @@
         <v>171</v>
       </c>
       <c r="D76" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
@@ -11563,7 +11563,7 @@
         <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
@@ -11947,7 +11947,7 @@
         <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
@@ -12075,7 +12075,7 @@
         <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
@@ -12203,7 +12203,7 @@
         <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
@@ -12331,7 +12331,7 @@
         <v>171</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>

--- a/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
+++ b/Notion data/Lũy kế ngày LONG XUYÊN.xlsx
@@ -652,19 +652,19 @@
     <t>2024-06-25T08:24:00.000Z</t>
   </si>
   <si>
-    <t>2024-08-30T20:17:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-30T20:18:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-30T20:13:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-30T20:14:00.000Z</t>
-  </si>
-  <si>
-    <t>2024-08-30T20:15:00.000Z</t>
+    <t>2024-08-31T05:43:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:39:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:40:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:41:00.000Z</t>
+  </si>
+  <si>
+    <t>2024-08-31T05:42:00.000Z</t>
   </si>
   <si>
     <t>https://www.notion.so/1-5d0e0e970741499595e37d37dd92e29b</t>
@@ -2971,7 +2971,7 @@
         <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>163</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         <v>165</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -4281,7 +4281,7 @@
         <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
@@ -4412,7 +4412,7 @@
         <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
@@ -4674,7 +4674,7 @@
         <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -5067,7 +5067,7 @@
         <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>181</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
@@ -5591,7 +5591,7 @@
         <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
@@ -5722,7 +5722,7 @@
         <v>183</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
@@ -5853,7 +5853,7 @@
         <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
@@ -5984,7 +5984,7 @@
         <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
@@ -6115,7 +6115,7 @@
         <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
@@ -6246,7 +6246,7 @@
         <v>187</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
@@ -6377,7 +6377,7 @@
         <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
@@ -6639,7 +6639,7 @@
         <v>190</v>
       </c>
       <c r="D33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
@@ -6770,7 +6770,7 @@
         <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
@@ -6901,7 +6901,7 @@
         <v>191</v>
       </c>
       <c r="D35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -7032,7 +7032,7 @@
         <v>192</v>
       </c>
       <c r="D36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>193</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>194</v>
       </c>
       <c r="D38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
